--- a/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Molhos e condimentos.xlsx
+++ b/PRODUTOS/Mercearia Salgada/Mercearia Salgada - Molhos e condimentos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Maionese Tradicional Hellmanns 500g</t>
+          <t>Ketchup Heinz Tomato 397g Trad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b1270cf-6acc-46f8-b70f-28a2ce7e0865.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc43b7d7-ba5f-474f-ac82-bb0c553bc5d3.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896102593068</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Molho De Tomate Heinz Sache 240g Tradicional</t>
+          <t>Molho P/salada Liza 234g Caseiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66e339e3-c627-4caa-a00b-b0412bfa853f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/676d51dd-197b-4a92-888c-31b3cd1a472c.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896036090879</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Maionese Hemmer 500g Receita Caseira</t>
+          <t>Molho De Pimenta Cepera Extra Fort 60ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4a00bd3-8556-4853-86e8-5fe445891ad1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b96a1242-6b50-4702-9821-bea9e663b7c0.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896025801967</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ketchup Heinz Tomato 397g Trad</t>
+          <t>Molho Pimenta Calabres Cepera 150ml</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc43b7d7-ba5f-474f-ac82-bb0c553bc5d3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5776aca6-8a91-417d-a73d-ab467d8cf729.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896025801349</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Mostarda Quero 190 Gr</t>
+          <t>Molho Ingles Cepera 150ml</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54f73a7c-b2d8-4cd8-bba8-a6741ae8bcea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d62beca-ec99-4d8d-aaa6-1b2e1cb5748d.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896025800069</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Maionese Quero Sache 200g</t>
+          <t>Maionese Hellmans C/limão 500ml</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 13,49</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb38b5c9-68e7-493e-9967-a52b0782dd74.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2dd1372e-f951-44dd-baee-3a0e3aaf294f.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7894000050720</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ketchup Hemmer 750g Tradicional</t>
+          <t>Pimenta Malagueta Vermelha Cepera 50gr</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 22,49</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07b27a73-28c6-43d7-b83c-405d04e1028a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3694a73e-6851-482e-bac6-64ab01c42fe6.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896025800441</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ketchup Heinz Tomato 567g Trad</t>
+          <t>Molho De Pimenta Vermelha Cepera 150ml</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62e95e64-0b7d-4ae6-8de8-53b175c15bad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9d247d8-bd0d-49b7-8e47-f8427ad849de.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896025800052</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ketchup Tradicional Quero 400g</t>
+          <t>Molho De Pimenta Quero 150ml</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5451d78-80eb-4d11-ab62-940f76d6d217.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b091e1e-0112-42d6-8d33-b2aae208e30f.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896007811304</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ketchup Cepera 800g Tradicional</t>
+          <t>Molho De Alho Kenko 150ml</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/816c78b4-f373-4aea-b59b-8e87dae860e9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09610984-2559-4bcd-b394-8906a687ba30.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896007811304</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Catchup Cepera 1010g</t>
+          <t>Molho P/salada Liza 234g Limao</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f96cd83c-0468-4823-889c-2ee543f8921c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a24c726-29ad-4c0b-8a8e-72900cb1ed3f.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896036090909</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ketchup Hemmer 1kg Trad</t>
+          <t>Maionese Tradicional Hellmanns 500g</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/67353e85-aab3-4380-b2c7-2daeced5dcb6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b1270cf-6acc-46f8-b70f-28a2ce7e0865.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7894000050720</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Catchup Hellmanns Trad 380gr</t>
+          <t>Shoyu Sakura 500ml Tradicional</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82a18e5a-74c4-4895-a444-b888643f0eba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab1b0317-1e21-4e43-af36-dd7a3f84b088.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896007801008</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Catchup Quero 200g</t>
+          <t>Shoyu Sakura 1l Tradicional</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f45fd69c-124b-44f8-a5ec-8dcc9f9c45a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/973f135f-ef5a-49c6-918e-9bebb2528a08.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896007801008</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Maionese Heinz 390g Ovos Galinhas Caipi</t>
+          <t>Molho Shoyu Sakura 150ml</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/330e14fd-56a6-496c-b709-d0e5f62e9847.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c3f41ae-e7c6-4753-9761-1147c80c4c15.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896007811007</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Maionese Hellmanns 500g Light</t>
+          <t>Molho Aji No Shoyu Sakura 150ml</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf20ba6c-1398-437d-8d2e-2fb28c7f6b77.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4345d06f-22fc-4e08-9fa6-aa6c26ecfed0.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896007811021</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ketchup Cepera 400g</t>
+          <t>Molho De Pimenta Kenko 150ml</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87df49eb-9085-480b-9c3c-bb44994d4ce1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d076ba2c-e4fd-47b9-aef5-f74b8c39ba13.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896007811304</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ketchup Hemmer 320g Trad</t>
+          <t>Molho Kenko 150ml Ingles</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af1dc98e-6400-4ae0-8e47-391a084d1273.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3f3fed2-a0e1-4351-a070-1277fdb47438.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896007811403</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mostarda Heinz 255g</t>
+          <t>Molho Ingles Cepera 1,01l</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82f578f0-0856-4d21-88fb-e9b81f0713b1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d803ad6f-df9f-45fb-bd2c-2c210db09a4e.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896025802889</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mostarda Hemmer 200g Amarela</t>
+          <t>Molho Shoyu Cepera 1,01l</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efde1fb4-e9a3-4d9e-809f-c1a233801c77.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a7d481b-c5f5-44cf-a069-bf4d55bcd382.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896025802872</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mostarda Cepera 1lt</t>
+          <t>Catchup Cepera 1010g</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79aad8be-f889-45c7-bb1f-c1bf72a12782.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f96cd83c-0468-4823-889c-2ee543f8921c.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896025802360</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mostarda Amarela Hemmer Bisnaga 700g</t>
+          <t>Molho De Alho Cepera 150ml</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5321fec1-ffae-437f-a89f-fc1d639be5a1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dea262b2-76d4-46f6-8537-d1622c06685b.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896025800052</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Maionese Heinz 400ml</t>
+          <t>Mostarda Cepera 370g</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b42dca8a-a7ea-44a4-bf7b-ba5ffd31ecd8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4eae3dd-cf87-4187-b5fb-caa64666b238.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7896025804371</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Catchup Picante Quero 400gr</t>
+          <t>Molho P/salada Liza 234g Rose</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/822f02a2-df6e-41b7-836a-d726102c826d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66dafbf7-d590-4e44-b3b1-c5c4151be7b2.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896036090909</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Molho Kenko 150ml Ingles</t>
+          <t>Mostarda Heinz 255g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a3f3fed2-a0e1-4351-a070-1277fdb47438.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82f578f0-0856-4d21-88fb-e9b81f0713b1.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896102503715</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Molho Shoyu Sakura 150ml</t>
+          <t>Mostarda Cepera 1lt</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c3f41ae-e7c6-4753-9761-1147c80c4c15.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79aad8be-f889-45c7-bb1f-c1bf72a12782.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896025802919</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Molho Shoyo Kisabor 150ml</t>
+          <t>Molho De Alho Cepera 1,01l</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29305fa0-b8e5-4f44-88f5-a1e0d861f67e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8217fa4-825a-4c4b-84d6-a23994c2b812.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896025802872</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1330,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mostarda Hellmans Pic 170g</t>
+          <t>Molho De Pimenta Cepera 1,01lt</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1200,7 +1340,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f380c565-361a-46c9-a0a0-58f884c9e740.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82727255-1bab-4d0a-8303-d211c99042c4.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896025804050</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Molho Wally 20g Chimichurri</t>
+          <t>Molho De Pimenta Calabresa Kisabor 150ml</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84c47f9e-8dda-4be0-ad39-f32af5cdca47.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bef71a5-3b63-4935-ac6d-6d7ddfd52072.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898416524523</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1394,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Maionese Liza 250g</t>
+          <t>Molho Ingles Kisabor 150ml</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1254,7 +1404,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af16a3d0-4047-4ba8-844e-ec73654f4293.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5fa1c71-502d-457a-ae95-44cfc1db30a2.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7898416524530</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Molho De Tomate Quero Sch 240g Manjericao</t>
+          <t>Molho De Pimenta Vermelha Kisabor 150ml</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1d3d812-6b94-4f14-9344-0f3072357601.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b02c4266-a684-40bf-87ec-39798a03bb0d.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896025800052</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mostarda Kisabor 180gr</t>
+          <t>Molho Shoyo Kisabor 150ml</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f65e7334-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29305fa0-b8e5-4f44-88f5-a1e0d861f67e.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7898416524554</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Molho De Alho Cepera 150ml</t>
+          <t>Molho Sanduiche Billy Jack Kisabor 200g</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dea262b2-76d4-46f6-8537-d1622c06685b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9401730a-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7898416520471</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Maionese Hellmann`s 335g Tradicional</t>
+          <t>Molho P/ Salada Caseiro Kisabor 240g Tra</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea4c6412-ddc9-413e-9c32-fb6d0097b4c4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0d73e7f-1d18-4916-ad7f-d3f3fedeb030.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7898416524707</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mostarda Amarela Heinz 220ml C/ Mel</t>
+          <t>Molho P/ Salada Kisabor 240gr Rose</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9aac62f9-c9dc-4feb-963c-04a91d116452.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9903e5ab-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7898416524714</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Quero 150ml</t>
+          <t>Molho P/ Salada Kisabor 240g Italiano</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7b091e1e-0112-42d6-8d33-b2aae208e30f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/935123b6-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7898416524721</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Molho Ingles Kisabor 150ml</t>
+          <t>Molho P/ Salada Kisabor 240g Limao</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b5fa1c71-502d-457a-ae95-44cfc1db30a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69175164-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7898416524769</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1650,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Maionese Cepera 500g Tradicional</t>
+          <t>Maionese Kisabor 200gr Azeitona Preta</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1470,7 +1660,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/762cf7a6-f747-482b-a5e6-c4c2db3be1b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a581b8b2-c5dd-41f9-8140-8016151814f7.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7898937864047</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ketchup Heinz 397g Bacon/cebola Caramel</t>
+          <t>Maionese Kisabor Bisn 200gr Atum</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88d77c35-59a4-483a-af0a-2c7da503cce0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a081e2b-9b57-40b6-ab39-94504808235c.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7898937864405</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Molho Ingles Cepera 150ml</t>
+          <t>Molho Tartaro Kisabor 200gr</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d62beca-ec99-4d8d-aaa6-1b2e1cb5748d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c63ceb96-4e2d-4242-aacd-ed1cf97b1d55.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7898937864061</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Calabresa Kisabor 150ml</t>
+          <t>Ketchup Kisabor 380gr</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bef71a5-3b63-4935-ac6d-6d7ddfd52072.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b86abf9e-a0fd-4ed0-b4b4-a89eb92d34d4.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7898416524653</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mostarda Cepera 370g</t>
+          <t>Mostarda Kisabor 180gr</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4eae3dd-cf87-4187-b5fb-caa64666b238.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f65e7334-c0b4-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7898416524660</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Molho Branco Predilecta 240gr</t>
+          <t>Ketchup Heinz 397g Picante</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/282de5c9-9e73-4561-a981-ca7e5d68d23c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/904e8791-a161-4956-a1ca-1682902df46d.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896102593068</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Maionese Hellmans C/limão 500ml</t>
+          <t>Molho Tare Sakura 180ml</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 13,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2dd1372e-f951-44dd-baee-3a0e3aaf294f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6aade72e-5ab7-4781-bcb9-e5fe48293894.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896007865970</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Molho De Tomate Heinz Sch 240g Bolonhesa</t>
+          <t>Maionese Hellmann`s 335g Tradicional</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e067fd3d-040d-4ded-8d80-c9ba11584d06.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ea4c6412-ddc9-413e-9c32-fb6d0097b4c4.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7891150027800</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Molho Barbecue Kisabor 200g</t>
+          <t>Mostarda Beaufor 200g Dijon</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/902df2a8-7353-4080-8dc9-1422750df534.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2aca65b-3dfe-4590-8dc3-5d4af64f1209.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891031410271</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Molho Shoyu Sakura 150ml Suave Pet</t>
+          <t>Molho Barbecue Kisabor 200g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e75351d9-2455-411a-9bfb-98fe539d6697.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/902df2a8-7353-4080-8dc9-1422750df534.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7898416524677</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Catchup Picante Quero 200g</t>
+          <t>Maionese Heinz 400ml</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c482643f-3c95-4b10-a350-bf5b216dff08.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b42dca8a-a7ea-44a4-bf7b-ba5ffd31ecd8.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896102502077</t>
         </is>
       </c>
     </row>
@@ -1757,7 +2002,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Molho Tare Sakura 180ml</t>
+          <t>Molho Catchup Kisabor 1,01l</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1767,7 +2012,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6aade72e-5ab7-4781-bcb9-e5fe48293894.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8eda84d8-2152-4a1a-a132-384e061890ce.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7898416529832</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Molho Aji No Shoyu Sakura 150ml</t>
+          <t>Molho Mostarda Kisabor 1,01l</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4345d06f-22fc-4e08-9fa6-aa6c26ecfed0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/255a3bbd-666b-432e-8321-fa42b960218a.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7898416529283</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Shoyu Sakura 1l Tradicional</t>
+          <t>Maionese Kisabor Bisn 200g Ceb/alho Tost</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/973f135f-ef5a-49c6-918e-9bebb2528a08.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8901ecd2-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7898416524196</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Shoyu Sakura 500ml Tradicional</t>
+          <t>Maionese Kisabor Bisn 200g Bacon</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab1b0317-1e21-4e43-af36-dd7a3f84b088.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/891ec0f7-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7898416524356</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Molho De Tomate Heinz Sch 240g Manjericao</t>
+          <t>Molho Shoyo Kisabor 1,01l</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec79c795-9f43-4d12-9412-c27a06e9a7d9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27a808b9-b517-4f48-ab72-d5673a44da35.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7898416529832</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mostarda Cepera Tp 350g</t>
+          <t>Ketchup Hemmer 320g Trad</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12e60b3d-6720-4173-b2d8-80ee79566a8e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af1dc98e-6400-4ae0-8e47-391a084d1273.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7891031409404</t>
         </is>
       </c>
     </row>
@@ -1919,7 +2194,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ketchup Heinz Squeeze 397g Picles</t>
+          <t>Ketchup Hemmer 1kg Trad</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1929,7 +2204,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5f87d66-251e-4203-b900-67f9eabfe48a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/67353e85-aab3-4380-b2c7-2daeced5dcb6.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7891031409404</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Vermelha Cepera 150ml</t>
+          <t>Mostarda Hemmer 200g Amarela</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9d247d8-bd0d-49b7-8e47-f8427ad849de.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/efde1fb4-e9a3-4d9e-809f-c1a233801c77.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7891031405017</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Maionese Heinz 215g Alho Com Ervas</t>
+          <t>Mostarda Hemmer 200g Dijon</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0991a15e-aa5e-4bdf-a185-9ce3efa771a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4d2e1fd-d06c-42dc-9910-e283ff015e2f.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7891031410271</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mostarda Cepera Tp 190g Dijon</t>
+          <t>Mostarda Hemmer 200g C/mel</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92bd0fdf-f5e5-4351-898f-385b8a648f87.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9535d290-fdfe-40c5-b44c-a5d4e181aec8.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7891031410264</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Ketchup Kisabor 380gr</t>
+          <t>Molho Shoyo Hinomoto 150ml Light</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b86abf9e-a0fd-4ed0-b4b4-a89eb92d34d4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d7fc16f-bd52-43f4-ac0c-1bcb1414e435.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7896181501435</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Molho President 200g Lacteo Branco</t>
+          <t>Molho Shoyo Hinomoto 150ml Premium</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7abdf886-1dd8-4880-a57e-3dac13c194d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c36c2fc7-e338-420d-a220-01c5facaa12a.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896181501435</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mostarda Cepera Tp 400g C/ Mel</t>
+          <t>Molho Agridoce Hinomoto 200ml</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c8ac4b5-c912-4a2c-b4ab-7284dd79fc22.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec2a7706-170f-4d24-9f61-509aeffe3356.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896181502517</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Molho De Tomate Quero Sch 240g Bolonhesa</t>
+          <t>Molho De Pimenta Knorr 150ml Alho</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0334fd62-354e-47aa-906e-a51d145b6917.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0d2e8a9-03ab-4d50-83fc-493db837e3dd.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7896007811304</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Maionese Quero Trad 495g</t>
+          <t>Ketchup Heinz 397g Bacon/cebola Caramel</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39589d9d-1e09-457f-9e57-902b0331f4e4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88d77c35-59a4-483a-af0a-2c7da503cce0.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7896102000368</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Molho De Soja Shoyo Sakura Premium 1l</t>
+          <t>Molho Branco Predilecta 240gr</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2a6b1d12-d1b6-424e-9d99-f1d4572d0e97.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/282de5c9-9e73-4561-a981-ca7e5d68d23c.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7896292309517</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Molho Shoyu Cepera 1,01l</t>
+          <t>Molho De Pimenta Tabasco Da Terrinha 60m</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a7d481b-c5f5-44cf-a069-bf4d55bcd382.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e32fb9ff-b80d-4aff-86a1-41ba0a6b0bb7.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7898960982435</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Vermelha Kisabor 150ml</t>
+          <t>Maionese Kisabor 355g Burguer</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b02c4266-a684-40bf-87ec-39798a03bb0d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/669d6b8a-0c89-4033-ae4a-610b3a6bd8b4.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7898937864528</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Knorr 150ml Salsa</t>
+          <t>Molho Billy &amp; Jack Kisabor 365g Original</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5bf9011-b7d2-4ddd-9daf-df43a0627cf4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f238f10d-692f-49f8-93f3-fb6d5c00fce4.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7898937864467</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Maionese Cepera 190g Salsa E Cebolinha</t>
+          <t>Ketchup Billy &amp; Jack Kisabor 380g</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e3513d7-3c85-49e5-9858-b11b42360cfc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/919a3338-3eef-4a5a-a641-3ed188ada9db.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7898937864733</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ketchup Hemmer 320g Zero</t>
+          <t>Molho P/ Salada Kisabor 240g Parmesao</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f26c2ab-f485-487f-a873-e4e98569ac56.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ebb3fe2-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7898416524738</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ketchup Heinz 397g Picante</t>
+          <t>Ketchup Cepera 400g</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/904e8791-a161-4956-a1ca-1682902df46d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/87df49eb-9085-480b-9c3c-bb44994d4ce1.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896025803688</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Molho Billy &amp; Jack 200g Cheddar</t>
+          <t>Mostarda Cepera Tp 350g</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a704c1f-477b-4c19-be01-7313693ac62e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12e60b3d-6720-4173-b2d8-80ee79566a8e.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896025804371</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Molho Shoyo Kisabor 1,01l</t>
+          <t>Mostarda Cepera Tp 400g C/ Mel</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27a808b9-b517-4f48-ab72-d5673a44da35.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c8ac4b5-c912-4a2c-b4ab-7284dd79fc22.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896025803718</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Molho Shoyo Hinomoto 150ml Premium</t>
+          <t>Mostarda Cepera Tp 870g</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c36c2fc7-e338-420d-a220-01c5facaa12a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c02a741-31a4-4bf4-a9da-234645440788.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7896025804371</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Kenko 150ml</t>
+          <t>Mostarda Cepera Tp 190g Dijon</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d076ba2c-e4fd-47b9-aef5-f74b8c39ba13.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92bd0fdf-f5e5-4351-898f-385b8a648f87.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7896025803831</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Maionese Hellmann´s Pt 500g Aioli</t>
+          <t>Molho Cepera 400g Barbecue C/ Mel</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3a3b778-aa33-4b05-a38e-dd155e3157c2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da0602ac-bd3d-4a78-be6f-0da1d9a72088.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7896025804364</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Molho Barbecue Heinz 260g Trad</t>
+          <t>Molho Cepera Tp 1,01kg Barbecue</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 19,49</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdd81478-fec4-48a4-a0df-160ca16fedfd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54a0f85b-de78-41c5-a870-22a50fd850f6.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7896025804364</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Molho De Alho Kenko 150ml</t>
+          <t>Molho Cepera 190g P/ Hamburguer</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09610984-2559-4bcd-b394-8906a687ba30.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1d32af8-21ac-4021-9792-96c51d87e3b1.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7896025803664</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Molho Ingles Cepera 1,01l</t>
+          <t>Molho De Pimenta Cepera 270ml Chipotle</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d803ad6f-df9f-45fb-bd2c-2c210db09a4e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd215336-812a-4ef0-bba6-0f22954b4c5f.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7896025804050</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Molho Mostarda Kisabor 1,01l</t>
+          <t>Molho Pimenta Cepera 270ml Sweet Chilli</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/255a3bbd-666b-432e-8321-fa42b960218a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f78dcf4c-e20c-475c-b024-ef22ade32b10.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7896025804081</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mostarda Amarela Squeeze Heinz 220g Pimenta Picante</t>
+          <t>Maionese Cepera Tp 190g C/ Alho</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c4be776-05eb-4a64-9878-9aa119025ad5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f29a652-866f-409f-a622-2743d521a53a.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7896025804678</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Molho Quero Sch 240g Pizza</t>
+          <t>Molho De Pimenta Knorr 150ml Salsa</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 3,29</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69612709-8362-47c7-b1c5-be8ae4853327.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5bf9011-b7d2-4ddd-9daf-df43a0627cf4.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7896007811304</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Tabasco Da Terrinha 60m</t>
+          <t>Maionese Hellmann´s Pt 500g Aioli</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e32fb9ff-b80d-4aff-86a1-41ba0a6b0bb7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3a3b778-aa33-4b05-a38e-dd155e3157c2.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7891150072077</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Molho Catchup Kisabor 1,01l</t>
+          <t>Molho Barbecue Hellmann´s 400g Trad</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8eda84d8-2152-4a1a-a132-384e061890ce.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e97f52b2-1628-4ff4-8711-daa827c77ae3.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7896102502091</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Molho Billy &amp; Jack Kisabor 365g Original</t>
+          <t>Molho Para Salada Com Cebola, Alho, Limao E Ervas Finas Hellmanns Squeeze 210ml</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f238f10d-692f-49f8-93f3-fb6d5c00fce4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b728ff3f-2fd8-498e-9e85-554a4d1e8982.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7891150070905</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Molho Para Salada Liza 234ml Caesar Molho Para Salada Liza 234ml Caesar</t>
+          <t>Ketchup Hemmer 320g Zero</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6a0ed2d-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f26c2ab-f485-487f-a873-e4e98569ac56.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7891031409404</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Molho P/salada Liza 234g Caseiro</t>
+          <t>Maionese Quero Trad 495g</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/676d51dd-197b-4a92-888c-31b3cd1a472c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39589d9d-1e09-457f-9e57-902b0331f4e4.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7896102584998</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Molho Pimenta Calabres Cepera 150ml</t>
+          <t>Molho Agridoce Kenko 180ml</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5776aca6-8a91-417d-a73d-ab467d8cf729.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f402ee06-4135-4958-a6d9-f8506e7b14f2.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7896007865864</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Knorr 150ml Alho</t>
+          <t>Molho Billy &amp; Jack 200g Bacon</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e0d2e8a9-03ab-4d50-83fc-493db837e3dd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6577fe7-6d60-46ab-aa6f-05326ec9b507.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7898937864924</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Molho Shoyu 1,01l Ponzan</t>
+          <t>Molho Billy &amp; Jack 200g Cheddar</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d23c984a-90e5-4c5c-94eb-dc4bf49346be.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a704c1f-477b-4c19-be01-7313693ac62e.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7898937864900</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Pimenta Biquinho Aica Sache 80g</t>
+          <t>Molho Billy &amp; Jack 200g Chipotle</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ca789660-b35e-4908-9d5d-5abdf226c0f3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20b6ffbb-98ac-4629-901d-0d407302a579.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7898937864917</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Maionese Hellmann`s Sachê 800g Tradicional</t>
+          <t>Molho De Soja Light Sakura 150ml</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 16,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7d3ecb8-2fbc-444d-b0d8-f37cd2a1ef95.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91326cee-6e0d-4159-aaf3-c7ec6b890193.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7896007810123</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mostarda Hemmer 200g Dijon</t>
+          <t>Molho De Soja Light Sakura 500ml</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 18,59</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4d2e1fd-d06c-42dc-9910-e283ff015e2f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74d589a8-a068-4732-8448-afe36d626ee9.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7896007800124</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Mostarda Escura Heinz Squeeze 235g</t>
+          <t>Ketchup Heinz Squeeze 397g Picles</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95b9dc8d-df6b-4015-8b07-5057f0371db2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5f87d66-251e-4203-b900-67f9eabfe48a.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7896102501544</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Molho P/salada Liza 234g Limao</t>
+          <t>Maionese Cepera 190g Salsa E Cebolinha</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a24c726-29ad-4c0b-8a8e-72900cb1ed3f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e3513d7-3c85-49e5-9858-b11b42360cfc.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7896025805033</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Cepera 1,01lt</t>
+          <t>Molho Pimenta Cepêra 270ml Buffalo Wings</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82727255-1bab-4d0a-8303-d211c99042c4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/790dbcfb-5a95-4722-9def-bd93e6df39b6.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7896025804951</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Molho P/ Salada Kisabor 240g Limao</t>
+          <t>Molho Pimenta Cepêra 310g Sweet Chilli Thai</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69175164-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3135d062-af1f-421e-b859-7cfff89eaf3c.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7896025804890</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Molho P/ Salada Kisabor 240g Italiano</t>
+          <t>Molho Shoyo Cepera Premium Umai 270ml</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/935123b6-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81480009-00d2-4c95-bf57-d8cc27f497ac.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7896025804845</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Molho P/ Salada Kisabor 240g Parmesao</t>
+          <t>Molho Shoyo Cepera Umai 130ml Gengibre</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ebb3fe2-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a393374f-9f60-41e2-bd4b-da298bf98ea4.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7896025805057</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Molho Cepera Tp 1,01kg Barbecue</t>
+          <t>Molho Gourmet Kamar 200ml Alho</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54a0f85b-de78-41c5-a870-22a50fd850f6.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7898960660739</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Molho Shoyo Hinomoto 150ml Light</t>
+          <t>Molho Gourmet Kamar 200ml Churrasco</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d7fc16f-bd52-43f4-ac0c-1bcb1414e435.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7898960660739</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Molho Para Salada Hellmann`s Rosé 210ml</t>
+          <t>Molho Gourmet Kamar 200ml Pimenta Picante</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ff2f52e1-abd9-4991-b239-d9ddcc5f5173.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7898960660753</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Ketchup Billy &amp; Jack Kisabor 380g</t>
+          <t>Molho President 200g 4 Queijos</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/919a3338-3eef-4a5a-a641-3ed188ada9db.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33d5e5c2-33b3-4a6c-ab9b-53e70ac94fe0.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7891097104060</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Molho Madeira Stand Up Pouch 300g</t>
+          <t>Molho President 200g Lacteo Branco</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fd66a66a-a872-4965-b191-9bd25710585d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7abdf886-1dd8-4880-a57e-3dac13c194d0.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7891097104060</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Maionese Kisabor 355g Burguer</t>
+          <t>Molho Big Bob Bobs 200gr</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 19,49</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/669d6b8a-0c89-4033-ae4a-610b3a6bd8b4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/829df88e-1ac5-4388-baaf-065dc3c42150.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7896025805088</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Molho P/ Salada Kisabor 240gr Rose</t>
+          <t>Molho Shoyu Sakura 150ml Suave Pet</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9903e5ab-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e75351d9-2455-411a-9bfb-98fe539d6697.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7896007811007</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Molho Tartaro Kisabor 200gr</t>
+          <t>Ketchup Hemmer 750g Tradicional</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c63ceb96-4e2d-4242-aacd-ed1cf97b1d55.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/07b27a73-28c6-43d7-b83c-405d04e1028a.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7891031409404</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Mostarda Beaufor 200g Dijon</t>
+          <t>Molho De Pimenta Cepera 270ml Sriracha</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e2aca65b-3dfe-4590-8dc3-5d4af64f1209.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f575b6e-845f-4821-969c-c733fcdc9298.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7896025804074</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Molho P/salada Liza 234g Rose</t>
+          <t>Maionese Heinz 215g Alho Com Ervas</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66dafbf7-d590-4e44-b3b1-c5c4151be7b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0991a15e-aa5e-4bdf-a185-9ce3efa771a2.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7896102502077</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Patê De Atum Gomes Da Costa Sachê 170g Azeitona</t>
+          <t>Molho Barbecue Heinz 260g Trad</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 19,49</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20e74b8c-f8fb-4078-862a-9828a60c386c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cdd81478-fec4-48a4-a0df-160ca16fedfd.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7896102502091</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Maionese Cepera Tp 190g C/ Alho</t>
+          <t>Mostarda Amarela Squeeze Heinz 220g Pimenta Picante</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f29a652-866f-409f-a622-2743d521a53a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c4be776-05eb-4a64-9878-9aa119025ad5.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7896102503715</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Molho De Soja Light Sakura 500ml</t>
+          <t>Mostarda Amarela Heinz 220ml C/ Mel</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 18,59</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74d589a8-a068-4732-8448-afe36d626ee9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9aac62f9-c9dc-4feb-963c-04a91d116452.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7896102502138</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Patê De Atum Gomes Da Costa Sachê 170g Tradicional</t>
+          <t>Mostarda Escura Heinz Squeeze 235g</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c2c58da-ab91-426a-a3b8-36d9661c4d22.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95b9dc8d-df6b-4015-8b07-5057f0371db2.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7896102502282</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Maionese Kisabor 200gr Azeitona Preta</t>
+          <t>Molho Para Salada Liza 234ml Caesar Molho Para Salada Liza 234ml Caesar</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a581b8b2-c5dd-41f9-8140-8016151814f7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6a0ed2d-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7896036097458</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Molho De Alho Cepera 1,01l</t>
+          <t>Molho Shoyu 1,01l Ponzan</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8217fa4-825a-4c4b-84d6-a23994c2b812.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d23c984a-90e5-4c5c-94eb-dc4bf49346be.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7898270961687</t>
         </is>
       </c>
     </row>
@@ -3539,17 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Mostarda Hemmer 200g C/mel</t>
+          <t>Molho Yakissoba Karui 500ml</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9535d290-fdfe-40c5-b44c-a5d4e181aec8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e80a191-1ecd-42e8-8676-92bc61cc6d10.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7896025805361</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Molho Billy &amp; Jack 200g Chipotle</t>
+          <t>Molho Tonkatsu Karui 250ml Pet</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20b6ffbb-98ac-4629-901d-0d407302a579.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/865be31c-f5be-4ece-8c4d-4eebda2e42f2.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7898270966958</t>
         </is>
       </c>
     </row>
@@ -3593,17 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Maionese Nba Boston Celtics Hellmanns Squeeze 335g</t>
+          <t>Ketchup Cepera 800g Tradicional</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/894b5fbb-9648-4b82-a2c6-5493e04a38c9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/816c78b4-f373-4aea-b59b-8e87dae860e9.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7896025802360</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Molho De Pimenta Cepera Extra Fort 60ml</t>
+          <t>Molho Shoyu Karui 150ml Light</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 4,49</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b96a1242-6b50-4702-9821-bea9e663b7c0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f11d8ea3-a10f-459d-a231-c4a5a418789e.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7898270967665</t>
         </is>
       </c>
     </row>
@@ -3647,17 +4242,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Molho Para Salada Ki Sabor 240ml Mostarda E Mel</t>
+          <t>Molho Shoyu Karui 150ml Tradicional</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/920797c8-28af-4565-aec1-bb57e1d76ac4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdf86a2b-196e-43ea-8a95-ff5a0360bb52.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7898270967665</t>
         </is>
       </c>
     </row>
@@ -3674,17 +4274,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Maionese Churrasco Nba Los Angeles Lakers Hellmanns Squeeze 335g</t>
+          <t>Molho Strogonoff Predilecta Sache 300g</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,59</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c73ac3a5-e774-4980-ab3e-d8718c421631.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f110410a-529c-4104-ae9b-e3ad5214aefc.jpg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7896292334281</t>
         </is>
       </c>
     </row>
@@ -3701,17 +4306,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Molho Shoyu Karui 150ml Light</t>
+          <t>Mostarda Amarela Hemmer Bisnaga 700g</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>R$ 4,49</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f11d8ea3-a10f-459d-a231-c4a5a418789e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5321fec1-ffae-437f-a89f-fc1d639be5a1.jpg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7891031405055</t>
         </is>
       </c>
     </row>
@@ -3728,17 +4338,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Molho Big Bob Bobs 200gr</t>
+          <t>Molho Para Salada Ki Sabor 240ml Mostarda E Mel</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>R$ 19,49</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/829df88e-1ac5-4388-baaf-065dc3c42150.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/920797c8-28af-4565-aec1-bb57e1d76ac4.jpg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7898416524486</t>
         </is>
       </c>
     </row>
@@ -3755,7 +4370,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Maionese Kisabor Bisn 200gr Atum</t>
+          <t>Maionese Cepera 500g Tradicional</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3765,7 +4380,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a081e2b-9b57-40b6-ab39-94504808235c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/762cf7a6-f747-482b-a5e6-c4c2db3be1b7.jpg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7896025805743</t>
         </is>
       </c>
     </row>
@@ -3782,17 +4402,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Mostarda Cepera Tp 870g</t>
+          <t>Molho De Tomate Heinz Sch 240g Manjericao</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6c02a741-31a4-4bf4-a9da-234645440788.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec79c795-9f43-4d12-9412-c27a06e9a7d9.jpg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7896102503821</t>
         </is>
       </c>
     </row>
@@ -3809,17 +4434,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Molho Cepera 400g Barbecue C/ Mel</t>
+          <t>Molho De Tomate Quero Sch 240g Bolonhesa</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da0602ac-bd3d-4a78-be6f-0da1d9a72088.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0334fd62-354e-47aa-906e-a51d145b6917.jpg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7896102503692</t>
         </is>
       </c>
     </row>
@@ -3836,17 +4466,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Molho Para Salada Com Cebola, Alho, Limao E Ervas Finas Hellmanns Squeeze 210ml</t>
+          <t>Molho De Tomate Quero Sch 240g Manjericao</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b728ff3f-2fd8-498e-9e85-554a4d1e8982.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1d3d812-6b94-4f14-9344-0f3072357601.jpg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7896102503685</t>
         </is>
       </c>
     </row>
@@ -3863,17 +4498,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Ketchup Hellmann`s 390g Supreme</t>
+          <t>Molho Quero Sch 240g Pizza</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 3,29</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a741bc08-f028-429a-af1c-60ca60014465.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69612709-8362-47c7-b1c5-be8ae4853327.jpg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7896102503692</t>
         </is>
       </c>
     </row>
@@ -3890,7 +4530,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Molho Cepera 190g P/ Hamburguer</t>
+          <t>Maionese Churrasco Nba Los Angeles Lakers Hellmanns Squeeze 335g</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3900,7 +4540,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1d32af8-21ac-4021-9792-96c51d87e3b1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c73ac3a5-e774-4980-ab3e-d8718c421631.jpg</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7891150090835</t>
         </is>
       </c>
     </row>
@@ -3917,17 +4562,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Maionese Kisabor Bisn 200g Bacon</t>
+          <t>Maionese Nba Boston Celtics Hellmanns Squeeze 335g</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/891ec0f7-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/894b5fbb-9648-4b82-a2c6-5493e04a38c9.jpg</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7891150094864</t>
         </is>
       </c>
     </row>
@@ -3944,17 +4594,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Molho Barbecue Hellmann´s 400g Trad</t>
+          <t>Maionese Vegana Hellmanns 335g Squeeze</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e97f52b2-1628-4ff4-8711-daa827c77ae3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/086f43b0-9218-4cdc-89bb-9324109a1ed8.jpg</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7891150078185</t>
         </is>
       </c>
     </row>
@@ -3971,17 +4626,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Molho De Soja Light Sakura 150ml</t>
+          <t>Ketchup Hellmann`s 390g Supreme</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91326cee-6e0d-4159-aaf3-c7ec6b890193.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a741bc08-f028-429a-af1c-60ca60014465.jpg</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7891150097940</t>
         </is>
       </c>
     </row>
@@ -3998,17 +4658,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Passata Mamma D`oro Cepera 300g</t>
+          <t>Patê De Atum Gomes Da Costa Sachê 170g Azeitona</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd111029-3115-461c-8021-9135fd50fcd7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20e74b8c-f8fb-4078-862a-9828a60c386c.jpg</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7891167831667</t>
         </is>
       </c>
     </row>
@@ -4025,17 +4690,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Molho Billy &amp; Jack 200g Bacon</t>
+          <t>Patê De Atum Gomes Da Costa Sachê 170g Tradicional</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6577fe7-6d60-46ab-aa6f-05326ec9b507.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c2c58da-ab91-426a-a3b8-36d9661c4d22.jpg</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7891167831667</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4722,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Molho Shoyo Cepera Premium Umai 270ml</t>
+          <t>Maionese Hellmann`s Sqz 335g Bacon</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81480009-00d2-4c95-bf57-d8cc27f497ac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/648f2700-3245-4a10-84fe-378484b63585.jpg</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7891150099371</t>
         </is>
       </c>
     </row>
@@ -4079,17 +4754,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Molho Shoyu Karui 150ml Tradicional</t>
+          <t>Maionese Hellmann`s Squeeze 335g Light</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bdf86a2b-196e-43ea-8a95-ff5a0360bb52.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6df3616-afa4-4be6-9861-8fc10aa82fcf.jpg</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7894000050720</t>
         </is>
       </c>
     </row>
@@ -4106,17 +4786,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Molho Strogonoff Predilecta Sache 300g</t>
+          <t>Maionese Halloween Heinz 215g</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>R$ 8,59</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f110410a-529c-4104-ae9b-e3ad5214aefc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1871a3e-e0d3-4f43-a153-a61c486e0981.jpg</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7896102504170</t>
         </is>
       </c>
     </row>
@@ -4133,17 +4818,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Molho Sanduiche Billy Jack Kisabor 200g</t>
+          <t>Maionese Cepera 200g Verde</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9401730a-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7da8a44d-9819-452f-9d46-315fd093976b.jpg</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7896025805606</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4850,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Molho Pimenta Cepera 270ml Sweet Chilli</t>
+          <t>Molho Do Assador Cepera 230g Alho E Salsa</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f78dcf4c-e20c-475c-b024-ef22ade32b10.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3174274d-f77f-446d-934a-e7d9287e0498.jpg</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7896025805699</t>
         </is>
       </c>
     </row>
@@ -4187,17 +4882,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Molho P/ Salada Caseiro Kisabor 240g Tra</t>
+          <t>Molho Tomate Heinz 320g Rústico Basilico</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b0d73e7f-1d18-4916-ad7f-d3f3fedeb030.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da87c773-0b4a-4a78-a31b-4cb66888f849.jpg</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7896102503234</t>
         </is>
       </c>
     </row>
@@ -4214,17 +4914,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Molho Agridoce Hinomoto 200ml</t>
+          <t>Molho De Tomate Heinz 320g Rústico Oliva</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec2a7706-170f-4d24-9f61-509aeffe3356.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19968746-3809-4dbd-bfe5-8e0465d2c030.jpg</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7896102503241</t>
         </is>
       </c>
     </row>
@@ -4241,17 +4946,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Molho Shoyo Cepera Umai 130ml Gengibre</t>
+          <t>Molho De Tomate Heinz 320g Rústico Tradicional</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a393374f-9f60-41e2-bd4b-da298bf98ea4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c41d100-2b56-4e46-a161-16b1bcc2ac20.jpg</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7896102503227</t>
         </is>
       </c>
     </row>
@@ -4268,692 +4978,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Molho Yakissoba Karui 500ml</t>
+          <t>Maionese Heinz 390g Ovos Galinhas Caipi</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e80a191-1ecd-42e8-8676-92bc61cc6d10.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Molho Para Salada Kisabor 240ml Iogurte Com Hortela</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 9,69</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b81824f6-56c9-4847-a956-8b5d608c9627.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Maionese Hellmann`s Squeeze 335g Light</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6df3616-afa4-4be6-9861-8fc10aa82fcf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Pimenta Malagueta Vermelha Cepera 50gr</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 22,49</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3694a73e-6851-482e-bac6-64ab01c42fe6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Maionese Kisabor Bisn 200g Ceb/alho Tost</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8901ecd2-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Molho Pimenta Cepêra 270ml Buffalo Wings</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/790dbcfb-5a95-4722-9def-bd93e6df39b6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Molho De Tomate Heinz 320g Rústico Tradicional</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c41d100-2b56-4e46-a161-16b1bcc2ac20.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Molho Pimenta Cepêra 310g Sweet Chilli Thai</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3135d062-af1f-421e-b859-7cfff89eaf3c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Maionese Hellmann`s Sqz 335g Bacon</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/648f2700-3245-4a10-84fe-378484b63585.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Molho De Pimenta Cepera 270ml Chipotle</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bd215336-812a-4ef0-bba6-0f22954b4c5f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Molho De Pimenta Cepera 270ml Sriracha</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f575b6e-845f-4821-969c-c733fcdc9298.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Molho Branco Carbonara Don Ravello 400g</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/926ead3e-2148-4b17-b8e0-da9a79c0b864.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Maionese Vegana Hellmanns 335g Squeeze</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/086f43b0-9218-4cdc-89bb-9324109a1ed8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Molho Tomate Heinz 320g Rústico Basilico</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da87c773-0b4a-4a78-a31b-4cb66888f849.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Molho De Tomate Heinz 320g Rústico Oliva</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19968746-3809-4dbd-bfe5-8e0465d2c030.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Molho Branco 4 Queijos Don Ravello 400g</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5cfd81b7-bb8b-402f-bdf6-ca9c33f1a79d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Molho Tonkatsu Karui 250ml Pet</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/865be31c-f5be-4ece-8c4d-4eebda2e42f2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Molho Gourmet Kamar 200ml Churrasco</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Maionese Halloween Heinz 215g</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1871a3e-e0d3-4f43-a153-a61c486e0981.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Maionese Cepera 200g Verde</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7da8a44d-9819-452f-9d46-315fd093976b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Molho Agridoce Kenko 180ml</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f402ee06-4135-4958-a6d9-f8506e7b14f2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Molho Gourmet Kamar 200ml Alho</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Molho Gourmet Kamar 200ml Pimenta Picante</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Molho Branco Alfredo Don Ravello 400g</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0478462-8849-486a-9d4e-bb115a3c3351.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Molho Do Assador Cepera 230g Alho E Salsa</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3174274d-f77f-446d-934a-e7d9287e0498.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Mercearia Salgada</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Molhos e condimentos</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Molho De Sweet Chilli Blue Dragon 175ml</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/52068bc8-f7cd-41b4-8d5a-8b69d7bf1c88.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/330e14fd-56a6-496c-b709-d0e5f62e9847.jpg</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7896102583182</t>
         </is>
       </c>
     </row>
